--- a/GEO2R/MouseDatasets.xlsx
+++ b/GEO2R/MouseDatasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="4260" windowWidth="25360" windowHeight="16360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,127 +19,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
-  <si>
-    <t>DatasetCode</t>
-  </si>
-  <si>
-    <t>DatasetName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Study Lab</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>SampleSize</t>
   </si>
   <si>
     <t>BrainRegion</t>
   </si>
   <si>
-    <t>ClusteredBrainRegion</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>HtmlMethod</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>StratFactor</t>
-  </si>
-  <si>
-    <t>Peturbation</t>
-  </si>
-  <si>
-    <t>Contrast</t>
-  </si>
-  <si>
-    <t>Ngenes</t>
-  </si>
-  <si>
-    <t>Nexcluded</t>
-  </si>
-  <si>
-    <t>Subject Distrobution</t>
-  </si>
-  <si>
-    <t>GPL</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Platform Link</t>
-  </si>
-  <si>
-    <t>Model Description</t>
-  </si>
-  <si>
-    <t>Acknowledgement</t>
-  </si>
-  <si>
-    <t>GSE25926</t>
-  </si>
-  <si>
-    <t>Prefrontal Cortex</t>
-  </si>
-  <si>
-    <t>Frontal Lobe</t>
-  </si>
-  <si>
-    <t>GEO2R/Aydin/Results</t>
-  </si>
-  <si>
-    <t>GSE25926_Aydin</t>
-  </si>
-  <si>
-    <t>GSE25926_Aydin_APLP2gen1vsWT</t>
-  </si>
-  <si>
-    <t>GSE25926_Aydin_APLP2gen1vsWT.csv</t>
-  </si>
-  <si>
-    <t>APLP2ko|APPko|APPsα|WildType</t>
-  </si>
-  <si>
-    <t>APP Knockout vs Wild Type</t>
-  </si>
-  <si>
-    <t>APLP2 vs Wild Type</t>
-  </si>
-  <si>
-    <t>APLP2 (1 generation backcross) vs Wild Type</t>
-  </si>
-  <si>
-    <t>APPsα Knockin vs Wild Type</t>
-  </si>
-  <si>
-    <t>APLP2 KO-WT</t>
-  </si>
-  <si>
-    <t>APP KO-WT</t>
-  </si>
-  <si>
-    <t>APPsa KI-WT</t>
-  </si>
-  <si>
-    <t>GPL1261</t>
-  </si>
-  <si>
-    <t>Affymetrix Mouse Genome 430 2.0 Array</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GPL1261</t>
-  </si>
-  <si>
-    <t>Aydin D, Filippov MA, Tschäpe JA, Gretz N et al. Comparative transcriptome profiling of amyloid precursor protein family members in the adult cortex. BMC Genomics 2011 Mar 24;12:160. PMID: 21435241</t>
+    <t>Peturbations</t>
+  </si>
+  <si>
+    <t>TimeCourse</t>
+  </si>
+  <si>
+    <t>DataLinks</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Cell Type</t>
+  </si>
+  <si>
+    <t>OtherTissue</t>
+  </si>
+  <si>
+    <t>PubMedID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GSE65159_HIP_TSAI_RNASeq</t>
+  </si>
+  <si>
+    <t>Tsai L</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>GSE65159</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>CK-p25; p25 (Cdk5 regulator) accumulation</t>
+  </si>
+  <si>
+    <t>2wks-6wks</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE65159</t>
+  </si>
+  <si>
+    <t>Mus muculus</t>
+  </si>
+  <si>
+    <t>CK-p25; p25 (Cdk5 regulator) accumulation &lt;br/&gt;Mouse Model Description :http://tsailaboratory.mit.edu/research/</t>
+  </si>
+  <si>
+    <t>GDS4414_PFC_AYDIN_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>Aydin D</t>
+  </si>
+  <si>
+    <t>µarray</t>
+  </si>
+  <si>
+    <t>GDS4414</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>APPko, APLP2ko, APPsaki</t>
+  </si>
+  <si>
+    <t>24-28wks</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/sites/GDSbrowser?acc=GDS4414</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>APPko, APLP2ko, APPsaki &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>GSE56772_HIP_BMS_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>GSE56772</t>
+  </si>
+  <si>
+    <t>rTg4510 (mutant human Tau transgene)</t>
+  </si>
+  <si>
+    <t>1.7 to 10.8 months</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE56772</t>
+  </si>
+  <si>
+    <t>rTg4510 (mutant human Tau transgene) &lt;br/&gt; Mouse Model Description : http://www.alzforum.org/research-models/rtgtaup301l4510</t>
+  </si>
+  <si>
+    <t>GSE57528_HIP_BMS_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>GSE57528</t>
+  </si>
+  <si>
+    <t>4.5 moths old</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57528</t>
+  </si>
+  <si>
+    <t>GSE57583_HIP_BMS_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>GSE57583</t>
+  </si>
+  <si>
+    <t>6.1 months old</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57583</t>
+  </si>
+  <si>
+    <t>GSE9566_FB_BARRES_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>Barres B</t>
+  </si>
+  <si>
+    <t>GSE9566</t>
+  </si>
+  <si>
+    <t>Forebrain</t>
+  </si>
+  <si>
+    <t>S100β-EGFP</t>
+  </si>
+  <si>
+    <t>postnatal ages day 1 to 30</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE9566</t>
+  </si>
+  <si>
+    <t>Astrocytes, Neurons, and Oligodendrocytes</t>
+  </si>
+  <si>
+    <t>S100β-EGFP &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>GSE31624_HIP_PFIZER_ARRAYEXP</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>GSE31624</t>
+  </si>
+  <si>
+    <t>APP transgenic (Tg2576), response to LXR Agonist</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE31624</t>
+  </si>
+  <si>
+    <t>Mouse Wild Type and APP transgenic (Tg2576) hippocampus and response to LXR Agonist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,9 +229,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -164,17 +247,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,65 +283,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -580,254 +627,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.83203125" customWidth="1"/>
-    <col min="17" max="17" width="55.5" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="18">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="E2" s="4">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>25693568</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:23" ht="18">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>21435241</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="18">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="E4" s="4">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>25153994</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="5" spans="1:23" ht="18">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4">
+        <v>76</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>25153994</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="18">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4">
+        <v>76</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>25153994</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
+    <row r="7" spans="1:23" ht="18">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>18171944</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
+    <row r="8" spans="1:23" s="2" customFormat="1" ht="18">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>37</v>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/GEO2R/MouseDatasets.xlsx
+++ b/GEO2R/MouseDatasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="4260" windowWidth="25360" windowHeight="16360" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="2960" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>GSE65159_HIP_TSAI_RNASeq</t>
-  </si>
-  <si>
     <t>Tsai L</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>CK-p25; p25 (Cdk5 regulator) accumulation &lt;br/&gt;Mouse Model Description :http://tsailaboratory.mit.edu/research/</t>
   </si>
   <si>
-    <t>GDS4414_PFC_AYDIN_ARRAYEXP</t>
-  </si>
-  <si>
     <t>Aydin D</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>APPko, APLP2ko, APPsaki &lt;br/&gt;</t>
   </si>
   <si>
-    <t>GSE56772_HIP_BMS_ARRAYEXP</t>
-  </si>
-  <si>
     <t>BMS</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>rTg4510 (mutant human Tau transgene) &lt;br/&gt; Mouse Model Description : http://www.alzforum.org/research-models/rtgtaup301l4510</t>
   </si>
   <si>
-    <t>GSE57528_HIP_BMS_ARRAYEXP</t>
-  </si>
-  <si>
     <t>GSE57528</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57528</t>
   </si>
   <si>
-    <t>GSE57583_HIP_BMS_ARRAYEXP</t>
-  </si>
-  <si>
     <t>GSE57583</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57583</t>
   </si>
   <si>
-    <t>GSE9566_FB_BARRES_ARRAYEXP</t>
-  </si>
-  <si>
     <t>Barres B</t>
   </si>
   <si>
@@ -195,9 +177,6 @@
     <t>S100β-EGFP &lt;br/&gt;</t>
   </si>
   <si>
-    <t>GSE31624_HIP_PFIZER_ARRAYEXP</t>
-  </si>
-  <si>
     <t>Pfizer</t>
   </si>
   <si>
@@ -211,13 +190,34 @@
   </si>
   <si>
     <t>Mouse Wild Type and APP transgenic (Tg2576) hippocampus and response to LXR Agonist</t>
+  </si>
+  <si>
+    <t>GSE65159_TSAI</t>
+  </si>
+  <si>
+    <t>GDS4414_Muller</t>
+  </si>
+  <si>
+    <t>GSE56772_BMS</t>
+  </si>
+  <si>
+    <t>GSE57528_BMS</t>
+  </si>
+  <si>
+    <t>GSE57583_BMS</t>
+  </si>
+  <si>
+    <t>GSE9566_BARRES</t>
+  </si>
+  <si>
+    <t>GSE31624_Pfizer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +265,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,9 +291,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -296,7 +306,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -630,10 +642,13 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18">
       <c r="A1" s="3" t="s">
@@ -690,34 +705,34 @@
     </row>
     <row r="2" spans="1:23" ht="18">
       <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -725,7 +740,7 @@
         <v>25693568</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -739,34 +754,34 @@
     </row>
     <row r="3" spans="1:23" ht="18">
       <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -774,7 +789,7 @@
         <v>21435241</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -788,34 +803,34 @@
     </row>
     <row r="4" spans="1:23" ht="18">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4">
         <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -823,7 +838,7 @@
         <v>25153994</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -837,34 +852,34 @@
     </row>
     <row r="5" spans="1:23" ht="18">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4">
         <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -872,7 +887,7 @@
         <v>25153994</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -886,34 +901,34 @@
     </row>
     <row r="6" spans="1:23" ht="18">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4">
         <v>76</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -921,7 +936,7 @@
         <v>25153994</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -935,44 +950,44 @@
     </row>
     <row r="7" spans="1:23" ht="18">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4">
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>18171944</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -986,42 +1001,43 @@
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" ht="18">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4">
         <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
